--- a/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AR2_50_6_qoq_forecast_error_table_first_eval_20101_20181.xlsx
+++ b/1_Result_Tables/3_naive_forecaster_qoq_evaluations_20101_20181/AR2_50_6_qoq_forecast_error_table_first_eval_20101_20181.xlsx
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02537308385299337</v>
+        <v>0.07560323850909009</v>
       </c>
       <c r="C7">
-        <v>0.2386887035152858</v>
+        <v>0.2548347997162139</v>
       </c>
       <c r="D7">
-        <v>0.0928060539510531</v>
+        <v>0.1052628688958802</v>
       </c>
       <c r="E7">
-        <v>0.3046408606064739</v>
+        <v>0.3244423968840697</v>
       </c>
       <c r="F7">
-        <v>0.3129255532107752</v>
+        <v>0.3346496625213748</v>
       </c>
       <c r="G7">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -579,22 +579,22 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>0.05921392066260617</v>
+        <v>0.1266874699694346</v>
       </c>
       <c r="C8">
-        <v>0.2982439283026396</v>
+        <v>0.3332451476001554</v>
       </c>
       <c r="D8">
-        <v>0.1360387182827766</v>
+        <v>0.1748387843367057</v>
       </c>
       <c r="E8">
-        <v>0.3688342693985696</v>
+        <v>0.418137279295575</v>
       </c>
       <c r="F8">
-        <v>0.375254189517183</v>
+        <v>0.4226555369927508</v>
       </c>
       <c r="G8">
-        <v>17</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
